--- a/biology/Zoologie/Antal_Festetics/Antal_Festetics.xlsx
+++ b/biology/Zoologie/Antal_Festetics/Antal_Festetics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Antal Festetics, né le 12 juin 1937 à Budapest, est un biologiste autrichien.
 </t>
@@ -511,7 +523,9 @@
           <t>Vie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Antal Festetics est issu d'une vieille famille noble austro-hongroise, les Festetics. Il est le petit-neveu de Marie Festetics, dame d'honneur de l'impératrice d'Autriche Élisabeth de Wittelsbach. Il a été étudiant de Konrad Lorenz. À partir de 1963 il a été chargé de cours d'écologie des animaux à l'Institut international de zoologie de l'Université de Vienne. Depuis 1980 il est président du Konrad-Lorenz-Gesellschaft für Umwelt und Verhaltenskunde[réf. nécessaire]. Il a pris sa retraite en 2005.
 </t>
@@ -542,9 +556,11 @@
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Prix Theodor Körner pour la science et l'art au début de sa carrière[1].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Prix Theodor Körner pour la science et l'art au début de sa carrière.</t>
         </is>
       </c>
     </row>
@@ -573,6 +589,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -598,7 +616,9 @@
           <t>À propos de Festetics</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Documentaire de Franz Leopold Schmelzer : Universum – Viecher sind auch nur Menschen. Das Beste von Antal Festetics aus 25 Jahren „Wildtiere und Wir“.</t>
         </is>
